--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="119">
   <si>
     <t>改定履歴</t>
   </si>
@@ -556,6 +556,9 @@
     <t>tinyint</t>
   </si>
   <si>
+    <t>0:禁止/1:許可</t>
+  </si>
+  <si>
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
@@ -578,6 +581,10 @@
       </rPr>
       <t>inyint</t>
     </r>
+  </si>
+  <si>
+    <t>0:チャットルーム
+1:ダイレクトチャット</t>
   </si>
   <si>
     <r>
@@ -816,6 +823,9 @@
       </rPr>
       <t>inyint</t>
     </r>
+  </si>
+  <si>
+    <t>0:未完了/1:完了</t>
   </si>
   <si>
     <r>
@@ -10537,7 +10547,7 @@
     <col customWidth="1" min="6" max="6" width="5.29"/>
     <col customWidth="1" min="7" max="7" width="12.29"/>
     <col customWidth="1" min="8" max="8" width="10.29"/>
-    <col customWidth="1" min="11" max="11" width="17.86"/>
+    <col customWidth="1" min="11" max="11" width="22.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -10717,15 +10727,17 @@
       <c r="F9" s="15">
         <v>1.0</v>
       </c>
-      <c r="G9" s="17">
-        <v>0.0</v>
+      <c r="G9" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="7">
@@ -10733,13 +10745,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="15">
         <v>1.0</v>
@@ -10752,7 +10764,9 @@
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="7">
@@ -10766,7 +10780,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
@@ -10785,10 +10799,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>19</v>
@@ -10818,7 +10832,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
@@ -10841,7 +10855,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F14" s="15">
         <v>1.0</v>
@@ -10855,7 +10869,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -11881,7 +11895,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -11889,7 +11903,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -11903,10 +11917,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>12</v>
@@ -11955,7 +11969,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K5" s="14"/>
     </row>
@@ -12023,10 +12037,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>19</v>
@@ -12050,10 +12064,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>25</v>
@@ -12075,13 +12089,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="14"/>
@@ -12098,13 +12112,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F11" s="15">
         <v>1.0</v>
@@ -12117,7 +12131,9 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="17" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="7">
@@ -12131,7 +12147,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -12148,10 +12164,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>19</v>
@@ -12183,7 +12199,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="14"/>
@@ -12206,7 +12222,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F15" s="15">
         <v>1.0</v>
@@ -12220,7 +12236,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
@@ -13250,7 +13266,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -13258,7 +13274,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -13272,10 +13288,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>12</v>
@@ -13324,7 +13340,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K5" s="14"/>
     </row>
@@ -13392,10 +13408,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>25</v>
@@ -13417,10 +13433,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>25</v>
@@ -13442,13 +13458,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="14"/>
@@ -13465,10 +13481,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>19</v>
@@ -13500,7 +13516,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -13523,7 +13539,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F13" s="15">
         <v>1.0</v>
@@ -13537,7 +13553,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mg4BILZBgLnxElhp9L1P+Min3sXeg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7miM0yY7FljxgTC7JwmetzMYY4htbA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="124">
   <si>
     <t>改定履歴</t>
   </si>
@@ -36,6 +36,27 @@
   </si>
   <si>
     <t>編集者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　</t>
+  </si>
+  <si>
+    <t>初版作成</t>
+  </si>
+  <si>
+    <t>小原</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>期限をNOT NULLからNULL許可に変更</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>添付ファイル名をNOT NULLからNULL許可に変更</t>
   </si>
   <si>
     <t>users</t>
@@ -673,9 +694,6 @@
     </r>
   </si>
   <si>
-    <t>tasks</t>
-  </si>
-  <si>
     <t>チャットルーム内投稿内容を記録するテーブル</t>
   </si>
   <si>
@@ -908,9 +926,6 @@
     </r>
   </si>
   <si>
-    <t>posts</t>
-  </si>
-  <si>
     <t>チャットルーム内の投稿を記録</t>
   </si>
   <si>
@@ -1102,10 +1117,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd h:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1134,6 +1151,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Sans-serif"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1198,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1208,6 +1230,15 @@
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
@@ -1248,11 +1279,20 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,10 +1600,18 @@
       <c r="X2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="6">
+        <v>44585.0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1586,10 +1634,18 @@
       <c r="X3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="8">
+        <v>44586.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1612,10 +1668,18 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="8">
+        <v>44586.0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1638,10 +1702,9 @@
       <c r="X5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1664,10 +1727,10 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1690,10 +1753,10 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1716,10 +1779,10 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1742,10 +1805,10 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1768,10 +1831,10 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1794,10 +1857,10 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1820,10 +1883,10 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1846,10 +1909,10 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1872,10 +1935,10 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1898,10 +1961,10 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1924,10 +1987,10 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1950,10 +2013,10 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1976,10 +2039,10 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2002,10 +2065,10 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2028,10 +2091,10 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2054,10 +2117,10 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2080,10 +2143,10 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2106,10 +2169,10 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2132,10 +2195,10 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2158,10 +2221,10 @@
       <c r="X25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2184,10 +2247,10 @@
       <c r="X26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2210,10 +2273,10 @@
       <c r="X27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2236,10 +2299,10 @@
       <c r="X28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="7"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2262,10 +2325,10 @@
       <c r="X29" s="3"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2288,10 +2351,10 @@
       <c r="X30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2314,10 +2377,10 @@
       <c r="X31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2340,10 +2403,10 @@
       <c r="X32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2366,10 +2429,10 @@
       <c r="X33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2392,10 +2455,10 @@
       <c r="X34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2418,10 +2481,10 @@
       <c r="X35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2444,10 +2507,10 @@
       <c r="X36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2470,10 +2533,10 @@
       <c r="X37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2496,10 +2559,10 @@
       <c r="X38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2522,10 +2585,10 @@
       <c r="X39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2548,10 +2611,10 @@
       <c r="X40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2574,10 +2637,10 @@
       <c r="X41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2600,10 +2663,10 @@
       <c r="X42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2626,10 +2689,10 @@
       <c r="X43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2652,10 +2715,10 @@
       <c r="X44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2678,10 +2741,10 @@
       <c r="X45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2704,10 +2767,10 @@
       <c r="X46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2730,10 +2793,10 @@
       <c r="X47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -2756,10 +2819,10 @@
       <c r="X48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2782,10 +2845,10 @@
       <c r="X49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2808,10 +2871,10 @@
       <c r="X50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -2834,10 +2897,10 @@
       <c r="X51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2860,10 +2923,10 @@
       <c r="X52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -2886,10 +2949,10 @@
       <c r="X53" s="3"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2912,10 +2975,10 @@
       <c r="X54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -2938,10 +3001,10 @@
       <c r="X55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2964,10 +3027,10 @@
       <c r="X56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2990,10 +3053,10 @@
       <c r="X57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3016,10 +3079,10 @@
       <c r="X58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3042,10 +3105,10 @@
       <c r="X59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3068,10 +3131,10 @@
       <c r="X60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3094,10 +3157,10 @@
       <c r="X61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -8043,302 +8106,302 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>5</v>
+      <c r="B1" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <f t="shared" ref="B5:B14" si="1">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="18">
         <v>11.0</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="18">
         <v>100.0</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="15">
-        <v>100.0</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="C8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="18">
         <v>100.0</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="C9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="18">
         <v>1000.0</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="F10" s="18">
         <v>13.0</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="C11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="18">
         <v>13.0</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="C12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="C13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="C14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="18">
         <v>1.0</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <v>0.0</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
-        <v>45</v>
+      <c r="H14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -9367,167 +9430,167 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>46</v>
+      <c r="B1" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <f t="shared" ref="B5:B8" si="1">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="18">
         <v>11.0</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18">
         <v>11.0</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17" t="s">
-        <v>54</v>
+      <c r="G6" s="17"/>
+      <c r="H6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="C7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="18">
         <v>11.0</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="17" t="s">
-        <v>57</v>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="C8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
@@ -10544,7 +10607,7 @@
     <col customWidth="1" min="3" max="3" width="23.71"/>
     <col customWidth="1" min="4" max="4" width="26.29"/>
     <col customWidth="1" min="5" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="5.29"/>
+    <col customWidth="1" min="6" max="6" width="16.14"/>
     <col customWidth="1" min="7" max="7" width="12.29"/>
     <col customWidth="1" min="8" max="8" width="10.29"/>
     <col customWidth="1" min="11" max="11" width="22.71"/>
@@ -10554,329 +10617,336 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>59</v>
+      <c r="B1" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <f t="shared" ref="B5:B14" si="1">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="18">
         <v>11.0</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18">
         <v>11.0</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17" t="s">
-        <v>54</v>
+      <c r="G6" s="17"/>
+      <c r="H6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="C7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="18">
         <v>100.0</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="C8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="18">
         <v>1000.0</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="C9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="18">
         <v>1.0</v>
       </c>
-      <c r="G9" s="17" t="b">
+      <c r="G9" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="17" t="s">
-        <v>73</v>
+      <c r="H9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="C10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="18">
         <v>1.0</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="20">
         <v>0.0</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="17" t="s">
-        <v>77</v>
+      <c r="H10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17" t="s">
-        <v>54</v>
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="C12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="18">
         <v>11.0</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="C13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="C14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="18">
         <v>1.0</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <v>0.0</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
-        <v>83</v>
+      <c r="H14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="J19" s="25"/>
+    </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -11823,35 +11893,6 @@
     <row r="963" ht="15.75" customHeight="1"/>
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
@@ -11884,8 +11925,8 @@
     <col customWidth="1" min="3" max="3" width="16.57"/>
     <col customWidth="1" min="4" max="4" width="26.29"/>
     <col customWidth="1" min="5" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="5.29"/>
-    <col customWidth="1" min="7" max="7" width="12.29"/>
+    <col customWidth="1" min="6" max="6" width="13.14"/>
+    <col customWidth="1" min="7" max="7" width="13.57"/>
     <col customWidth="1" min="8" max="8" width="10.29"/>
     <col customWidth="1" min="11" max="11" width="22.14"/>
   </cols>
@@ -11894,349 +11935,347 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>84</v>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <f t="shared" ref="B5:B15" si="1">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="18">
         <v>11.0</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18">
         <v>11.0</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17" t="s">
-        <v>54</v>
+      <c r="G6" s="17"/>
+      <c r="H6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="C7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="18">
         <v>11.0</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="17" t="s">
-        <v>57</v>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="C8" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="18">
         <v>11.0</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="C9" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="18">
         <v>1000.0</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="C10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="C11" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="18">
         <v>1.0</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="20">
         <v>0.0</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17" t="s">
-        <v>99</v>
+      <c r="H11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="C12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="C13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="18">
         <v>11.0</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17" t="s">
-        <v>54</v>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="C14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="C15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="18">
         <v>1.0</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="20">
         <v>0.0</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14" t="s">
-        <v>103</v>
+      <c r="H15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
@@ -12244,24 +12283,78 @@
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="G21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="I22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="G23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="G24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="I25" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="I26" s="25"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="I27" s="25"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="I28" s="25"/>
+      <c r="K28" s="25"/>
+    </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="F31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="I32" s="25"/>
+      <c r="K32" s="25"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="F33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="F34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="I35" s="25"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="I36" s="25"/>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="I37" s="25"/>
+      <c r="K37" s="25"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="I38" s="25"/>
+      <c r="K38" s="25"/>
+    </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
     <row r="41" ht="15.75" customHeight="1"/>
@@ -13254,10 +13347,10 @@
     <col customWidth="1" min="2" max="2" width="3.14"/>
     <col customWidth="1" min="3" max="3" width="16.57"/>
     <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="5.29"/>
+    <col customWidth="1" min="5" max="5" width="20.0"/>
+    <col customWidth="1" min="6" max="6" width="13.86"/>
     <col customWidth="1" min="7" max="7" width="12.29"/>
-    <col customWidth="1" min="8" max="8" width="10.29"/>
+    <col customWidth="1" min="8" max="8" width="15.14"/>
     <col customWidth="1" min="11" max="11" width="21.57"/>
   </cols>
   <sheetData>
@@ -13265,301 +13358,309 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>104</v>
+      <c r="B1" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <f t="shared" ref="B5:B13" si="1">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="18">
         <v>11.0</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18">
         <v>11.0</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="17" t="s">
-        <v>54</v>
+      <c r="G6" s="17"/>
+      <c r="H6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="C7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="18">
         <v>11.0</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="17" t="s">
-        <v>57</v>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="C8" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="18">
         <v>100.0</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="C9" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="18">
         <v>1000.0</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="C10" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="C11" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="18">
         <v>11.0</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="17" t="s">
-        <v>54</v>
+      <c r="G11" s="17"/>
+      <c r="H11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="C12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="C13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="18">
         <v>1.0</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="20">
         <v>0.0</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14" t="s">
-        <v>118</v>
+      <c r="H13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -14478,68 +14579,6 @@
     <row r="933" ht="15.75" customHeight="1"/>
     <row r="934" ht="15.75" customHeight="1"/>
     <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
